--- a/biology/Botanique/Chasmanthium_latifolium/Chasmanthium_latifolium.xlsx
+++ b/biology/Botanique/Chasmanthium_latifolium/Chasmanthium_latifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chasmanthium latifolium est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Panicoideae, originaire d'Amérique du Nord .
@@ -515,15 +527,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chasmanthium latifolium  est une plante herbacée vivace, cespiteuse, aux rhizomes courts, au tiges (chaimes) de 100 à 150 cm de long.
-Les feuilles ont un limbe lancéolé de 9 à 20 cm de long sur 10 à 20 mm de large, présentant des nervures transverses distinctes, et une ligule membraneuse ciliée[2].
+Les feuilles ont un limbe lancéolé de 9 à 20 cm de long sur 10 à 20 mm de large, présentant des nervures transverses distinctes, et une ligule membraneuse ciliée.
 L'inflorescence est une panicule ovale, ouverte, de 10 à 35 cm de long, aux ramifications primaire retombantes.
 Les épillets solitaires, pédicellés, pendants, elliptiques ou ovales, comprimés latéralement, ont 20 à 40 mm de long sur 6 à 16 mm de large. Ils comprennent 1 à 2 fleurons stériles à la base, 5 à 15 (voire 25) fleurons fertiles, avec des fleurons réduits à l'apex. A maturité, ils se désarticulent sous chaque fleuron fertile.
-Ils sont sous-tendus par deux glumes similaires de 5 à 7 mm de long, persistantes, herbacées, plus courtes que l'épillet. La glume supérieure a une longueur égale à 50 à 70 % de celle de la lemme adjacente[2].
+Ils sont sous-tendus par deux glumes similaires de 5 à 7 mm de long, persistantes, herbacées, plus courtes que l'épillet. La glume supérieure a une longueur égale à 50 à 70 % de celle de la lemme adjacente.
 Les fleurons présentent un callus pileux et comptent deux lodicules charnus, cunées et une anthère jaune de 4 mm de long. Leur taille diminue de la base vers l'apex de l'épillet.
-Le fruit est un caryopse au péricarpe adhérent, ovoïde, comprimé latéralement,de 2 à 2,5 mm de long[2].
+Le fruit est un caryopse au péricarpe adhérent, ovoïde, comprimé latéralement,de 2 à 2,5 mm de long.
 </t>
         </is>
       </c>
@@ -552,10 +566,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Chasmanthium latifolium couvre une grande partie du quart nord-est des États-Unis, du New Jersey, du Michigan et du Wisconsin jusqu'au Texas et à l'Arizona, et s'étend vers le nord dans le Manitoba (Canada) et vers le sud dans le nord-est du Mexique[3].
-La plante se rencontre le long des rives des cours d'eau et dans les bois de feuillus[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Chasmanthium latifolium couvre une grande partie du quart nord-est des États-Unis, du New Jersey, du Michigan et du Wisconsin jusqu'au Texas et à l'Arizona, et s'étend vers le nord dans le Manitoba (Canada) et vers le sud dans le nord-est du Mexique.
+La plante se rencontre le long des rives des cours d'eau et dans les bois de feuillus.
 </t>
         </is>
       </c>
